--- a/Saucy Script/F20_dataModified.xlsx
+++ b/Saucy Script/F20_dataModified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\PetrTogether\Saucy Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70779803-0869-4E69-B439-99C988B9479E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2663D-D56C-464D-B1AD-D1EAD7155F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2505" windowWidth="22710" windowHeight="11400" xr2:uid="{0C8635BA-F654-427A-ACC3-1D491216FE09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C8635BA-F654-427A-ACC3-1D491216FE09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="29">
   <si>
     <t>Student number</t>
   </si>
@@ -109,12 +109,36 @@
   <si>
     <t>Project 10</t>
   </si>
+  <si>
+    <t>Mechanical Skills</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Metal Machining</t>
+  </si>
+  <si>
+    <t>Woodworking</t>
+  </si>
+  <si>
+    <t>Power Tools</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>Laser Cutting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +146,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,14 +176,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -206,6 +245,23 @@
     <tableColumn id="6" xr3:uid="{D862DA95-D173-472E-88CA-451C8F51A52C}" uniqueName="6" name="Preference 5" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3ACCFBD0-6EEF-4FE0-ACED-10630998B364}" name="Table2" displayName="Table2" ref="G1:N1048576" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="G1:N1048576" xr:uid="{F4CDEC00-A46C-4704-BC97-3C1E02D6F3A1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CE9E0867-3C31-4666-A6C7-DB80C7572CB0}" name="Mechanical Skills"/>
+    <tableColumn id="2" xr3:uid="{BE482B7E-F2F1-4C9C-80AE-F8C2552CBF3E}" name="Electronics"/>
+    <tableColumn id="3" xr3:uid="{D4C9EE00-58D6-4492-A49A-4831265B2E41}" name="Welding"/>
+    <tableColumn id="4" xr3:uid="{DCA46E0F-5380-4D99-9F93-397A0434BA86}" name="Metal Machining"/>
+    <tableColumn id="5" xr3:uid="{CAB7E126-75F3-4895-9085-116E927B1BCE}" name="Woodworking"/>
+    <tableColumn id="6" xr3:uid="{FD74CFC4-2E56-4204-86FC-321582358FC9}" name="Power Tools"/>
+    <tableColumn id="7" xr3:uid="{C356C778-EA17-4AB8-8B10-68A3440C6F3F}" name="3D printing"/>
+    <tableColumn id="8" xr3:uid="{25D9F869-4870-4F6D-BB9D-E8BF59D7FD3B}" name="Laser Cutting"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -506,17 +562,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C82940-8E23-4CE0-B50A-5B6A83194A34}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +601,32 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,8 +645,32 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,8 +689,32 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -595,8 +733,32 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -615,8 +777,32 @@
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -635,8 +821,32 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -655,8 +865,32 @@
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,8 +909,32 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -695,8 +953,32 @@
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -715,8 +997,32 @@
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -735,8 +1041,32 @@
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -755,8 +1085,32 @@
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -775,8 +1129,32 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -795,8 +1173,32 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -815,8 +1217,32 @@
       <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -835,8 +1261,32 @@
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -855,8 +1305,32 @@
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -875,8 +1349,32 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -895,8 +1393,32 @@
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -915,8 +1437,32 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -935,8 +1481,32 @@
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -955,8 +1525,32 @@
       <c r="F22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -975,8 +1569,32 @@
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -995,8 +1613,32 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1015,8 +1657,32 @@
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1035,8 +1701,32 @@
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1055,8 +1745,32 @@
       <c r="F27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1075,8 +1789,32 @@
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1095,8 +1833,32 @@
       <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1115,8 +1877,32 @@
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1135,8 +1921,32 @@
       <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1155,8 +1965,32 @@
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1175,8 +2009,32 @@
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1195,8 +2053,32 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1215,8 +2097,32 @@
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1235,8 +2141,32 @@
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1255,8 +2185,32 @@
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1275,8 +2229,32 @@
       <c r="F38" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1295,8 +2273,32 @@
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1315,8 +2317,32 @@
       <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1335,8 +2361,32 @@
       <c r="F41" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,8 +2405,32 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1375,8 +2449,32 @@
       <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1395,8 +2493,32 @@
       <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1415,8 +2537,32 @@
       <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1435,8 +2581,32 @@
       <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1455,8 +2625,32 @@
       <c r="F47" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1475,8 +2669,32 @@
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1495,8 +2713,32 @@
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1515,8 +2757,32 @@
       <c r="F50" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1535,8 +2801,32 @@
       <c r="F51" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1555,8 +2845,32 @@
       <c r="F52" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1575,8 +2889,32 @@
       <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1595,8 +2933,32 @@
       <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1615,8 +2977,32 @@
       <c r="F55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1635,8 +3021,32 @@
       <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1655,8 +3065,32 @@
       <c r="F57" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1675,8 +3109,32 @@
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1695,8 +3153,32 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1715,8 +3197,32 @@
       <c r="F60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1735,8 +3241,32 @@
       <c r="F61" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1755,8 +3285,32 @@
       <c r="F62" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1775,8 +3329,32 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1795,8 +3373,32 @@
       <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1815,8 +3417,32 @@
       <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1835,8 +3461,32 @@
       <c r="F66" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1855,8 +3505,32 @@
       <c r="F67" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1875,8 +3549,32 @@
       <c r="F68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1895,8 +3593,32 @@
       <c r="F69" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1915,8 +3637,32 @@
       <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1935,11 +3681,36 @@
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
